--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H2">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I2">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J2">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N2">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q2">
-        <v>0.5829287122815555</v>
+        <v>0.01365645099722223</v>
       </c>
       <c r="R2">
-        <v>5.246358410534</v>
+        <v>0.122908058975</v>
       </c>
       <c r="S2">
-        <v>0.1326420104269604</v>
+        <v>0.005822847569980416</v>
       </c>
       <c r="T2">
-        <v>0.1326420104269605</v>
+        <v>0.005822847569980416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H3">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I3">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J3">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q3">
-        <v>0.550068119797111</v>
+        <v>0.01507839336611111</v>
       </c>
       <c r="R3">
-        <v>4.950613078173999</v>
+        <v>0.135705540295</v>
       </c>
       <c r="S3">
-        <v>0.1251647752880392</v>
+        <v>0.006429136397804057</v>
       </c>
       <c r="T3">
-        <v>0.1251647752880392</v>
+        <v>0.006429136397804057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H4">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I4">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J4">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N4">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q4">
-        <v>0.4989021151508888</v>
+        <v>0.02085193630722223</v>
       </c>
       <c r="R4">
-        <v>4.490119036357999</v>
+        <v>0.187667426765</v>
       </c>
       <c r="S4">
-        <v>0.113522250947066</v>
+        <v>0.008890863862111185</v>
       </c>
       <c r="T4">
-        <v>0.1135222509470661</v>
+        <v>0.008890863862111185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H5">
         <v>1.279705</v>
       </c>
       <c r="I5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N5">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q5">
-        <v>0.6567726173205557</v>
+        <v>0.5613049180472222</v>
       </c>
       <c r="R5">
-        <v>5.910953555885</v>
+        <v>5.051744262424999</v>
       </c>
       <c r="S5">
-        <v>0.1494447580284881</v>
+        <v>0.2393296017196656</v>
       </c>
       <c r="T5">
-        <v>0.1494447580284882</v>
+        <v>0.2393296017196656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H6">
         <v>1.279705</v>
       </c>
       <c r="I6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.358617</v>
       </c>
       <c r="O6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q6">
-        <v>0.6197493297761112</v>
+        <v>0.619749329776111</v>
       </c>
       <c r="R6">
-        <v>5.577743967985</v>
+        <v>5.577743967984999</v>
       </c>
       <c r="S6">
-        <v>0.1410203260369848</v>
+        <v>0.2642491727622239</v>
       </c>
       <c r="T6">
-        <v>0.1410203260369849</v>
+        <v>0.2642491727622239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H7">
         <v>1.279705</v>
       </c>
       <c r="I7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N7">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q7">
-        <v>0.5621017476938889</v>
+        <v>0.8570524217772222</v>
       </c>
       <c r="R7">
-        <v>5.058915729245</v>
+        <v>7.713471795994999</v>
       </c>
       <c r="S7">
-        <v>0.1279029567557374</v>
+        <v>0.3654306387879555</v>
       </c>
       <c r="T7">
-        <v>0.1279029567557374</v>
+        <v>0.3654306387879555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H8">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N8">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q8">
-        <v>0.330142810575</v>
+        <v>0.07095213830777777</v>
       </c>
       <c r="R8">
-        <v>2.971285295175</v>
+        <v>0.63856924477</v>
       </c>
       <c r="S8">
-        <v>0.07512206072553884</v>
+        <v>0.03025262465441375</v>
       </c>
       <c r="T8">
-        <v>0.07512206072553886</v>
+        <v>0.03025262465441375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H9">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.358617</v>
       </c>
       <c r="O9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q9">
-        <v>0.311532150075</v>
+        <v>0.07833984479488888</v>
       </c>
       <c r="R9">
-        <v>2.803789350674999</v>
+        <v>0.7050586031539999</v>
       </c>
       <c r="S9">
-        <v>0.07088731405397447</v>
+        <v>0.03340260035270852</v>
       </c>
       <c r="T9">
-        <v>0.07088731405397447</v>
+        <v>0.03340260035270852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H10">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N10">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q10">
-        <v>0.2825541837749999</v>
+        <v>0.1083363070797778</v>
       </c>
       <c r="R10">
-        <v>2.542987653975</v>
+        <v>0.9750267637179999</v>
       </c>
       <c r="S10">
-        <v>0.06429354773721051</v>
+        <v>0.04619251389313729</v>
       </c>
       <c r="T10">
-        <v>0.06429354773721052</v>
+        <v>0.04619251389313729</v>
       </c>
     </row>
   </sheetData>
